--- a/排表、肾表模板.xlsx
+++ b/排表、肾表模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8617e3ea1761520a/文件/璐璐的表/fullAuto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="578" documentId="11_18371E6389F677DF6F8FE1908AE493991BA797ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{230E16EA-2D40-4E29-BECA-9C39255DB60E}"/>
+  <xr:revisionPtr revIDLastSave="580" documentId="11_18371E6389F677DF6F8FE1908AE493991BA797ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51DA3A53-8341-49CD-B6D6-37E408EB7B86}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="1128" windowWidth="17256" windowHeight="10548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排表" sheetId="12" r:id="rId1"/>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1458,7 +1458,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1471,7 +1471,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>33</v>
@@ -1486,7 +1486,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="2">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1499,7 +1499,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="2">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>34</v>
@@ -1512,7 +1512,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1525,7 +1525,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>35</v>
@@ -1590,7 +1590,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1603,7 +1603,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>38</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1629,7 +1629,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>39</v>
@@ -1642,7 +1642,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="2">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1655,7 +1655,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="2">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>40</v>
@@ -1668,7 +1668,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1681,7 +1681,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>41</v>
@@ -1694,7 +1694,7 @@
         <v>42</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1707,7 +1707,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>42</v>
@@ -1720,7 +1720,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1733,7 +1733,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>43</v>
@@ -1746,7 +1746,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1759,7 +1759,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>44</v>
@@ -1772,7 +1772,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1785,7 +1785,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>45</v>
@@ -1798,7 +1798,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1811,7 +1811,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>46</v>
@@ -1824,7 +1824,7 @@
         <v>47</v>
       </c>
       <c r="C17" s="2">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1837,7 +1837,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="2">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>47</v>
@@ -1850,7 +1850,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="2">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1863,7 +1863,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="2">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>48</v>
@@ -1876,7 +1876,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="2">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1889,7 +1889,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="2">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>49</v>
@@ -1904,7 +1904,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1917,7 +1917,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>50</v>
@@ -1932,7 +1932,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1945,7 +1945,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>51</v>
@@ -1984,7 +1984,7 @@
         <v>53</v>
       </c>
       <c r="C23" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1997,7 +1997,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>53</v>
@@ -2010,7 +2010,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2023,7 +2023,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>54</v>
@@ -2036,7 +2036,7 @@
         <v>55</v>
       </c>
       <c r="C25" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2049,7 +2049,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>55</v>
@@ -2062,7 +2062,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2075,7 +2075,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>56</v>
@@ -2088,7 +2088,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2101,7 +2101,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>57</v>
@@ -2114,7 +2114,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2127,7 +2127,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>58</v>
@@ -2140,7 +2140,7 @@
         <v>59</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2153,7 +2153,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>59</v>
@@ -2166,7 +2166,7 @@
         <v>60</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2179,7 +2179,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>60</v>
@@ -2192,7 +2192,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2205,7 +2205,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>61</v>
@@ -2218,7 +2218,7 @@
         <v>62</v>
       </c>
       <c r="C32" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2231,7 +2231,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>62</v>
@@ -2244,7 +2244,7 @@
         <v>63</v>
       </c>
       <c r="C33" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2257,7 +2257,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>63</v>
@@ -2270,7 +2270,7 @@
         <v>64</v>
       </c>
       <c r="C34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2283,7 +2283,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>64</v>
@@ -2296,7 +2296,7 @@
         <v>65</v>
       </c>
       <c r="C35" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2309,7 +2309,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>65</v>
@@ -2322,7 +2322,7 @@
         <v>66</v>
       </c>
       <c r="C36" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2335,7 +2335,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>66</v>
